--- a/results/scored/HCC_human.xlsx
+++ b/results/scored/HCC_human.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/pico-parser-llm/results/scored/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83156DA9-55D0-774F-9DD2-AF1A63F537AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F20A6F-69DA-2648-B3AB-A50BEA6BB8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="3" xr2:uid="{94ED0F72-83BA-0D42-BD77-66A26D61B195}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="1" xr2:uid="{94ED0F72-83BA-0D42-BD77-66A26D61B195}"/>
   </bookViews>
   <sheets>
     <sheet name="HCC_PC_base" sheetId="13" r:id="rId1"/>
@@ -2889,9 +2889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC705C2D-8278-2E4B-8A6E-237F8F029BF8}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C3:C32"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B3:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25" defaultRowHeight="40" customHeight="1"/>
@@ -4200,7 +4200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84449D4A-1F5B-5446-A80E-B1A70DFBBE10}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>

--- a/results/scored/HCC_human.xlsx
+++ b/results/scored/HCC_human.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/pico-parser-llm/results/scored/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F20A6F-69DA-2648-B3AB-A50BEA6BB8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BDA08B-96E5-B549-B6C1-D68D45B63FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="1" xr2:uid="{94ED0F72-83BA-0D42-BD77-66A26D61B195}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="111">
   <si>
     <t>PICO_ID</t>
   </si>
@@ -736,9 +736,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ecog &lt;1 = WHO PS 0-1? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A+B3:B23dults with advanced or unresectable hepatocellular carcinoma (HCC), first-line treatment </t>
   </si>
 </sst>
 </file>
@@ -2148,8 +2145,8 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C3:C32"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B3:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25" defaultRowHeight="40" customHeight="1"/>
@@ -2890,8 +2887,8 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B3:B32"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25" defaultRowHeight="40" customHeight="1"/>
@@ -2948,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>2</v>
@@ -2964,7 +2961,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="30">
         <v>1</v>
@@ -3446,10 +3443,10 @@
         <v>47</v>
       </c>
       <c r="B30" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="58">
         <v>61</v>
@@ -3634,8 +3631,8 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B28:B35"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25" defaultRowHeight="40" customHeight="1"/>
@@ -4201,8 +4198,8 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B3:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25" defaultRowHeight="40" customHeight="1"/>
@@ -4306,7 +4303,9 @@
       <c r="A8" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="44">
+        <v>0</v>
+      </c>
       <c r="C8" s="66"/>
       <c r="D8" s="31"/>
       <c r="E8" s="1"/>
@@ -4328,7 +4327,9 @@
       <c r="A10" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="44">
+        <v>0</v>
+      </c>
       <c r="C10" s="67"/>
       <c r="D10" s="31"/>
       <c r="E10" s="1"/>
@@ -4374,7 +4375,9 @@
       <c r="A14" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="47">
+        <v>0</v>
+      </c>
       <c r="C14" s="32"/>
       <c r="D14" s="31"/>
       <c r="E14" s="1"/>
@@ -4484,7 +4487,7 @@
         <v>67</v>
       </c>
       <c r="C23" s="33"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
@@ -4492,7 +4495,9 @@
       <c r="A24" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="47"/>
+      <c r="B24" s="47">
+        <v>1</v>
+      </c>
       <c r="C24" s="33"/>
       <c r="D24" s="10"/>
       <c r="E24" s="1"/>
@@ -4586,7 +4591,9 @@
       <c r="A32" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="47">
+        <v>1</v>
+      </c>
       <c r="C32" s="33"/>
       <c r="D32" s="10"/>
       <c r="E32" s="1"/>
@@ -4632,7 +4639,9 @@
       <c r="A36" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="44"/>
+      <c r="B36" s="44">
+        <v>0</v>
+      </c>
       <c r="C36" s="66"/>
       <c r="D36" s="10"/>
       <c r="E36" s="1"/>
@@ -4654,7 +4663,9 @@
       <c r="A38" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="44"/>
+      <c r="B38" s="44">
+        <v>0</v>
+      </c>
       <c r="C38" s="66"/>
       <c r="D38" s="10"/>
       <c r="E38" s="1"/>
